--- a/Data_file/import_invoice_AR_เงินมัดจำค่าสินค้า116201.xlsx
+++ b/Data_file/import_invoice_AR_เงินมัดจำค่าสินค้า116201.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>invoice_date</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>22/11/2012</t>
   </si>
   <si>
     <t>คุณณัฐนันท์ /  เงินมัดจำล่วงหน้า 50% (สำหรับรอบการสั่งสินค้าปีหน้า) ตาม PD-0007077</t>
@@ -1850,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2625"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1909,18 +1906,18 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="49.8" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>16</v>
+      <c r="A2" s="33">
+        <v>41235</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>14</v>
@@ -1930,7 +1927,7 @@
       </c>
       <c r="H2" s="48"/>
       <c r="I2" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
@@ -1946,11 +1943,11 @@
         <v>45705</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="8" t="s">
@@ -1977,11 +1974,11 @@
         <v>45678</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="8" t="s">
@@ -1992,7 +1989,7 @@
       </c>
       <c r="H4" s="48"/>
       <c r="I4" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="9"/>
@@ -2008,11 +2005,11 @@
         <v>45684</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="8" t="s">
@@ -2023,7 +2020,7 @@
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="9"/>
@@ -2039,11 +2036,11 @@
         <v>45707</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="8" t="s">
@@ -2054,7 +2051,7 @@
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="9"/>
@@ -2070,11 +2067,11 @@
         <v>45695</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
@@ -2085,7 +2082,7 @@
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="9"/>
@@ -2101,11 +2098,11 @@
         <v>45709</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="8" t="s">
@@ -2116,7 +2113,7 @@
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="9"/>
@@ -2132,11 +2129,11 @@
         <v>45694</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="8" t="s">
@@ -2147,7 +2144,7 @@
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="9"/>
@@ -2163,11 +2160,11 @@
         <v>45694</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="8" t="s">
@@ -2178,7 +2175,7 @@
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="9"/>
@@ -2194,11 +2191,11 @@
         <v>45680</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="8" t="s">
@@ -2209,7 +2206,7 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="9"/>
@@ -2225,11 +2222,11 @@
         <v>45708</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="8" t="s">
@@ -2240,7 +2237,7 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="9"/>
@@ -2256,11 +2253,11 @@
         <v>45708</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="8" t="s">
@@ -2271,7 +2268,7 @@
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="9"/>
